--- a/projects/union-budget/data/raw/union-budget-2018-2019.xls.xlsx
+++ b/projects/union-budget/data/raw/union-budget-2018-2019.xls.xlsx
@@ -21,34 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
-  <si>
-    <t>Budget at a Glance</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Rupee"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> crore)</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>2016-2017</t>
   </si>
@@ -75,9 +48,6 @@
   </si>
   <si>
     <t>2. Tax Revenue</t>
-  </si>
-  <si>
-    <t>(Net to Centre)</t>
   </si>
   <si>
     <t>3. Non-Tax Revenue</t>
@@ -163,28 +133,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -192,18 +147,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Rupee"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -293,21 +236,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -316,28 +256,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,512 +575,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I41"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="14" t="s">
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" s="11" t="s">
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9" s="13"/>
-      <c r="E9" s="11" t="s">
+      <c r="B7" s="2">
+        <v>1374203</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1515771</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1505428</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1725738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B8" s="3">
+        <v>1101372</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1227014</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1269454</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1480649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>272831</v>
+      </c>
+      <c r="C9" s="3">
+        <v>288757</v>
+      </c>
+      <c r="D9" s="3">
+        <v>235974</v>
+      </c>
+      <c r="E9" s="3">
+        <v>245089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1374203</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1515771</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1505428</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1725738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="6" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6">
-        <v>1101372</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1227014</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1269454</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1480649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="6" t="s">
+      <c r="B11" s="4">
+        <v>600991</v>
+      </c>
+      <c r="C11" s="4">
+        <v>630964</v>
+      </c>
+      <c r="D11" s="4">
+        <v>712322</v>
+      </c>
+      <c r="E11" s="4">
+        <v>716475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="6" t="s">
+      <c r="B12" s="3">
+        <v>17630</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11933</v>
+      </c>
+      <c r="D12" s="3">
+        <v>17473</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6">
-        <v>272831</v>
-      </c>
-      <c r="E14" s="6">
-        <v>288757</v>
-      </c>
-      <c r="F14" s="6">
-        <v>235974</v>
-      </c>
-      <c r="G14" s="6">
-        <v>245089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="7">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B13" s="3">
+        <v>47743</v>
+      </c>
+      <c r="C13" s="3">
+        <v>72500</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7">
-        <v>600991</v>
-      </c>
-      <c r="E17" s="7">
-        <v>630964</v>
-      </c>
-      <c r="F17" s="7">
-        <v>712322</v>
-      </c>
-      <c r="G17" s="7">
-        <v>716475</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6">
-        <v>17630</v>
-      </c>
-      <c r="E18" s="6">
-        <v>11933</v>
-      </c>
-      <c r="F18" s="6">
-        <v>17473</v>
-      </c>
-      <c r="G18" s="6">
-        <v>12199</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="C19" s="6" t="s">
+      <c r="B15" s="3">
+        <v>535618</v>
+      </c>
+      <c r="C15" s="3">
+        <v>546531</v>
+      </c>
+      <c r="D15" s="3">
+        <v>594849</v>
+      </c>
+      <c r="E15" s="3">
+        <v>624276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6">
-        <v>47743</v>
-      </c>
-      <c r="E19" s="6">
-        <v>72500</v>
-      </c>
-      <c r="F19" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="C20" s="6" t="s">
+      <c r="B17" s="2">
+        <v>1975194</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2146735</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2217750</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2442213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" s="6" t="s">
+      <c r="B19" s="2">
+        <v>1975194</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2146735</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2217750</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2442213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1690584</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1836934</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1944305</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2141772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6">
+        <v>480714</v>
+      </c>
+      <c r="C22" s="6">
+        <v>523078</v>
+      </c>
+      <c r="D22" s="6">
+        <v>530843</v>
+      </c>
+      <c r="E22" s="6">
+        <v>575795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>165733</v>
+      </c>
+      <c r="C24" s="6">
+        <v>195350</v>
+      </c>
+      <c r="D24" s="6">
+        <v>189245</v>
+      </c>
+      <c r="E24" s="6">
+        <v>195345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>284610</v>
+      </c>
+      <c r="C25" s="5">
+        <v>309801</v>
+      </c>
+      <c r="D25" s="5">
+        <v>273445</v>
+      </c>
+      <c r="E25" s="5">
+        <v>300441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>316381</v>
+      </c>
+      <c r="C26" s="2">
+        <v>321163</v>
+      </c>
+      <c r="D26" s="2">
+        <v>438877</v>
+      </c>
+      <c r="E26" s="2">
+        <v>416034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>-2.1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-1.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>150648</v>
+      </c>
+      <c r="C28" s="2">
+        <v>125813</v>
+      </c>
+      <c r="D28" s="2">
+        <v>249632</v>
+      </c>
+      <c r="E28" s="2">
+        <v>220689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2">
         <v>535618</v>
       </c>
-      <c r="E21" s="6">
+      <c r="C30" s="2">
         <v>546531</v>
       </c>
-      <c r="F21" s="6">
+      <c r="D30" s="2">
         <v>594849</v>
       </c>
-      <c r="G21" s="6">
+      <c r="E30" s="2">
         <v>624276</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="5">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1975194</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2146735</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2217750</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2442213</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="5">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1975194</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2146735</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2217750</v>
-      </c>
-      <c r="G24" s="5">
-        <v>2442213</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="4">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="C26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1690584</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1836934</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1944305</v>
-      </c>
-      <c r="G26" s="8">
-        <v>2141772</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="9">
-        <v>11</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="9">
-        <v>480714</v>
-      </c>
-      <c r="E27" s="9">
-        <v>523078</v>
-      </c>
-      <c r="F27" s="9">
-        <v>530843</v>
-      </c>
-      <c r="G27" s="9">
-        <v>575795</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="9">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="C29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="9">
-        <v>165733</v>
-      </c>
-      <c r="E29" s="9">
-        <v>195350</v>
-      </c>
-      <c r="F29" s="9">
-        <v>189245</v>
-      </c>
-      <c r="G29" s="9">
-        <v>195345</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="8">
-        <v>13</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="8">
-        <v>284610</v>
-      </c>
-      <c r="E31" s="8">
-        <v>309801</v>
-      </c>
-      <c r="F31" s="8">
-        <v>273445</v>
-      </c>
-      <c r="G31" s="8">
-        <v>300441</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="5">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="5">
-        <v>316381</v>
-      </c>
-      <c r="E33" s="5">
-        <v>321163</v>
-      </c>
-      <c r="F33" s="5">
-        <v>438877</v>
-      </c>
-      <c r="G33" s="5">
-        <v>416034</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="D34" s="5">
-        <v>-2.1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-1.9</v>
-      </c>
-      <c r="F34" s="5">
-        <v>-2.6</v>
-      </c>
-      <c r="G34" s="5">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="5">
-        <v>15</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="5">
-        <v>150648</v>
-      </c>
-      <c r="E35" s="5">
-        <v>125813</v>
-      </c>
-      <c r="F35" s="5">
-        <v>249632</v>
-      </c>
-      <c r="G35" s="5">
-        <v>220689</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="D36" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>-0.7</v>
-      </c>
-      <c r="F36" s="5">
-        <v>-1.5</v>
-      </c>
-      <c r="G36" s="5">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="5">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="5">
-        <v>535618</v>
-      </c>
-      <c r="E37" s="5">
-        <v>546531</v>
-      </c>
-      <c r="F37" s="5">
-        <v>594849</v>
-      </c>
-      <c r="G37" s="5">
-        <v>624276</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="D38" s="5">
-        <v>-3.5</v>
-      </c>
-      <c r="E38" s="5">
-        <v>-3.2</v>
-      </c>
-      <c r="F38" s="5">
-        <v>-3.5</v>
-      </c>
-      <c r="G38" s="5">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="5">
-        <v>17</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="B32" s="2">
         <v>54904</v>
       </c>
-      <c r="E39" s="5">
+      <c r="C32" s="2">
         <v>23453</v>
       </c>
-      <c r="F39" s="5">
+      <c r="D32" s="2">
         <v>64006</v>
       </c>
-      <c r="G39" s="5">
+      <c r="E32" s="2">
         <v>48481</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
-      <c r="D40" s="5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>-0.4</v>
       </c>
-      <c r="E40" s="5">
+      <c r="C33" s="2">
         <v>-0.1</v>
       </c>
-      <c r="F40" s="5">
+      <c r="D33" s="2">
         <v>-0.4</v>
       </c>
-      <c r="G40" s="5">
+      <c r="E33" s="2">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="B5:G5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1162,7 +1033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1174,7 +1045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
